--- a/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:27:11+00:00</t>
+    <t>2024-02-10T20:05:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T20:05:30+00:00</t>
+    <t>2024-02-11T13:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:03:59+00:00</t>
+    <t>2024-02-11T13:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:49:58+00:00</t>
+    <t>2024-02-12T17:27:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-80-include-testscripts/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T17:27:16+00:00</t>
+    <t>2024-02-14T22:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
